--- a/BestU8/template/凭证V1.0.xlsx
+++ b/BestU8/template/凭证V1.0.xlsx
@@ -18,176 +18,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>黄色表示系统回写，用户不需输入。导入后系统回写凭证号</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>导入后系统回写制单人</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">标识同一张凭证
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>绿色表示用户必输项</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>灰色表示用户可选输入。针对辅助科目必输</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>系统回写标识是否导入</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>系统回写导入错误信息</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
@@ -289,7 +119,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -316,21 +146,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -694,14 +509,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="7.875" customWidth="1"/>
+    <col min="14" max="15" width="8.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+    <col min="17" max="17" width="11.75" customWidth="1"/>
+    <col min="18" max="18" width="10.125" customWidth="1"/>
+    <col min="19" max="19" width="7.75" customWidth="1"/>
+    <col min="21" max="21" width="28.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
@@ -1016,8 +852,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="导入后系统回写凭证号，用户不需输入。" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="导入后系统回写制单人" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="用来标识同一张凭证，用户输入" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="用户可选输入。但是针对辅助核算科目必输。" sqref="M1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="导入后系统回写导入是否成功。_x000a_Y- 已导入_x000a_N-未导入" sqref="T1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="系统回写导入错误信息" sqref="U1"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>